--- a/[3] Test Input/RESULTS_MTT_MERGED_DATE_ASR_control.xlsx
+++ b/[3] Test Input/RESULTS_MTT_MERGED_DATE_ASR_control.xlsx
@@ -512,31 +512,31 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.83333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="E2" t="n">
-        <v>34.66666666666666</v>
+        <v>30.76666666666667</v>
       </c>
       <c r="F2" t="n">
-        <v>21.83333333333333</v>
+        <v>28.26666666666667</v>
       </c>
       <c r="G2" t="n">
-        <v>72.10000000000001</v>
+        <v>32.2</v>
       </c>
       <c r="H2" t="n">
-        <v>70.80383333333333</v>
+        <v>31.19688750862755</v>
       </c>
       <c r="I2" t="n">
-        <v>64.63416666666666</v>
+        <v>29.06572001723975</v>
       </c>
       <c r="J2" t="n">
-        <v>29.02333333333334</v>
+        <v>10.1745</v>
       </c>
       <c r="K2" t="n">
-        <v>173.1113333333334</v>
+        <v>25.83216666666667</v>
       </c>
       <c r="L2" t="n">
-        <v>7962.66</v>
+        <v>1224.361833333333</v>
       </c>
     </row>
     <row r="3">
@@ -556,31 +556,31 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10.56666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>30.36666666666666</v>
+        <v>28.5</v>
       </c>
       <c r="F3" t="n">
-        <v>19.8</v>
+        <v>26.33333333333333</v>
       </c>
       <c r="G3" t="n">
-        <v>97.83333333333333</v>
+        <v>41.03333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>98.22449999999999</v>
+        <v>40.51394747792535</v>
       </c>
       <c r="I3" t="n">
-        <v>86.96916666666665</v>
+        <v>37.25248414667136</v>
       </c>
       <c r="J3" t="n">
-        <v>41.22466666666666</v>
+        <v>13.51216666666667</v>
       </c>
       <c r="K3" t="n">
-        <v>159.824</v>
+        <v>30.43650000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>11757.78466666667</v>
+        <v>1585.152833333334</v>
       </c>
     </row>
     <row r="4">
@@ -600,31 +600,31 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10.75555555555555</v>
+        <v>2.355555555555556</v>
       </c>
       <c r="E4" t="n">
-        <v>29.33333333333333</v>
+        <v>25.95555555555556</v>
       </c>
       <c r="F4" t="n">
-        <v>18.57777777777778</v>
+        <v>23.6</v>
       </c>
       <c r="G4" t="n">
-        <v>187.2888888888889</v>
+        <v>90.88888888888887</v>
       </c>
       <c r="H4" t="n">
-        <v>186.2911111111111</v>
+        <v>87.1297507154469</v>
       </c>
       <c r="I4" t="n">
-        <v>172.8275555555556</v>
+        <v>79.75134595904939</v>
       </c>
       <c r="J4" t="n">
-        <v>68.20977777777777</v>
+        <v>28.75888888888889</v>
       </c>
       <c r="K4" t="n">
-        <v>115.7246666666667</v>
+        <v>30.04266666666666</v>
       </c>
       <c r="L4" t="n">
-        <v>15974.93488888889</v>
+        <v>3519.673333333334</v>
       </c>
     </row>
     <row r="5">
@@ -644,31 +644,31 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.13333333333333</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>33.73333333333333</v>
+        <v>19.86666666666666</v>
       </c>
       <c r="F5" t="n">
-        <v>23.6</v>
+        <v>17.86666666666666</v>
       </c>
       <c r="G5" t="n">
-        <v>204.8666666666667</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>200.8993333333333</v>
+        <v>87.4937232747417</v>
       </c>
       <c r="I5" t="n">
-        <v>182.7273333333333</v>
+        <v>77.8256655586992</v>
       </c>
       <c r="J5" t="n">
-        <v>83.46333333333332</v>
+        <v>30.94933333333333</v>
       </c>
       <c r="K5" t="n">
-        <v>128.196</v>
+        <v>42.70133333333333</v>
       </c>
       <c r="L5" t="n">
-        <v>19597.47133333333</v>
+        <v>4301.724666666667</v>
       </c>
     </row>
     <row r="6">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10.66666666666667</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>30.08888888888889</v>
+        <v>21.64444444444445</v>
       </c>
       <c r="F6" t="n">
-        <v>19.42222222222222</v>
+        <v>19.64444444444444</v>
       </c>
       <c r="G6" t="n">
-        <v>136</v>
+        <v>67.37777777777778</v>
       </c>
       <c r="H6" t="n">
-        <v>136.4586666666667</v>
+        <v>65.67912101034476</v>
       </c>
       <c r="I6" t="n">
-        <v>121.8308888888889</v>
+        <v>61.02177068145014</v>
       </c>
       <c r="J6" t="n">
-        <v>46.26</v>
+        <v>21.34533333333333</v>
       </c>
       <c r="K6" t="n">
-        <v>88.87355555555554</v>
+        <v>32.904</v>
       </c>
       <c r="L6" t="n">
-        <v>9364.746444444443</v>
+        <v>2705.658888888889</v>
       </c>
     </row>
     <row r="7">
@@ -732,31 +732,31 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>32.93333333333333</v>
+        <v>25.73333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>22.93333333333333</v>
+        <v>23.73333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>120.0666666666667</v>
+        <v>48.4</v>
       </c>
       <c r="H7" t="n">
-        <v>119.7673333333333</v>
+        <v>48.03823958428722</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1486666666667</v>
+        <v>46.53594933262112</v>
       </c>
       <c r="J7" t="n">
-        <v>50.71933333333333</v>
+        <v>16.236</v>
       </c>
       <c r="K7" t="n">
-        <v>144.5886666666667</v>
+        <v>33.11533333333333</v>
       </c>
       <c r="L7" t="n">
-        <v>12911.34333333333</v>
+        <v>2019.234666666666</v>
       </c>
     </row>
   </sheetData>

--- a/[3] Test Input/RESULTS_MTT_MERGED_DATE_ASR_control.xlsx
+++ b/[3] Test Input/RESULTS_MTT_MERGED_DATE_ASR_control.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,40 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
@@ -512,30 +502,24 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.5</v>
+        <v>30.76666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>30.76666666666667</v>
+        <v>32.2</v>
       </c>
       <c r="F2" t="n">
-        <v>28.26666666666667</v>
+        <v>31.19688750862755</v>
       </c>
       <c r="G2" t="n">
-        <v>32.2</v>
+        <v>29.06572001723975</v>
       </c>
       <c r="H2" t="n">
-        <v>31.19688750862755</v>
+        <v>10.1745</v>
       </c>
       <c r="I2" t="n">
-        <v>29.06572001723975</v>
+        <v>25.83216666666667</v>
       </c>
       <c r="J2" t="n">
-        <v>10.1745</v>
-      </c>
-      <c r="K2" t="n">
-        <v>25.83216666666667</v>
-      </c>
-      <c r="L2" t="n">
         <v>1224.361833333333</v>
       </c>
     </row>
@@ -556,30 +540,24 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.166666666666667</v>
+        <v>28.5</v>
       </c>
       <c r="E3" t="n">
-        <v>28.5</v>
+        <v>41.03333333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>26.33333333333333</v>
+        <v>40.51394747792535</v>
       </c>
       <c r="G3" t="n">
-        <v>41.03333333333333</v>
+        <v>37.25248414667136</v>
       </c>
       <c r="H3" t="n">
-        <v>40.51394747792535</v>
+        <v>13.51216666666667</v>
       </c>
       <c r="I3" t="n">
-        <v>37.25248414667136</v>
+        <v>30.43650000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>13.51216666666667</v>
-      </c>
-      <c r="K3" t="n">
-        <v>30.43650000000001</v>
-      </c>
-      <c r="L3" t="n">
         <v>1585.152833333334</v>
       </c>
     </row>
@@ -600,30 +578,24 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.355555555555556</v>
+        <v>25.95555555555556</v>
       </c>
       <c r="E4" t="n">
-        <v>25.95555555555556</v>
+        <v>90.88888888888887</v>
       </c>
       <c r="F4" t="n">
-        <v>23.6</v>
+        <v>87.1297507154469</v>
       </c>
       <c r="G4" t="n">
-        <v>90.88888888888887</v>
+        <v>79.75134595904939</v>
       </c>
       <c r="H4" t="n">
-        <v>87.1297507154469</v>
+        <v>28.75888888888889</v>
       </c>
       <c r="I4" t="n">
-        <v>79.75134595904939</v>
+        <v>30.04266666666666</v>
       </c>
       <c r="J4" t="n">
-        <v>28.75888888888889</v>
-      </c>
-      <c r="K4" t="n">
-        <v>30.04266666666666</v>
-      </c>
-      <c r="L4" t="n">
         <v>3519.673333333334</v>
       </c>
     </row>
@@ -644,30 +616,24 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>19.86666666666666</v>
       </c>
       <c r="E5" t="n">
-        <v>19.86666666666666</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>17.86666666666666</v>
+        <v>87.4937232747417</v>
       </c>
       <c r="G5" t="n">
-        <v>90.33333333333333</v>
+        <v>77.8256655586992</v>
       </c>
       <c r="H5" t="n">
-        <v>87.4937232747417</v>
+        <v>30.94933333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>77.8256655586992</v>
+        <v>42.70133333333333</v>
       </c>
       <c r="J5" t="n">
-        <v>30.94933333333333</v>
-      </c>
-      <c r="K5" t="n">
-        <v>42.70133333333333</v>
-      </c>
-      <c r="L5" t="n">
         <v>4301.724666666667</v>
       </c>
     </row>
@@ -688,30 +654,24 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>21.64444444444445</v>
       </c>
       <c r="E6" t="n">
-        <v>21.64444444444445</v>
+        <v>67.37777777777778</v>
       </c>
       <c r="F6" t="n">
-        <v>19.64444444444444</v>
+        <v>65.67912101034476</v>
       </c>
       <c r="G6" t="n">
-        <v>67.37777777777778</v>
+        <v>61.02177068145014</v>
       </c>
       <c r="H6" t="n">
-        <v>65.67912101034476</v>
+        <v>21.34533333333333</v>
       </c>
       <c r="I6" t="n">
-        <v>61.02177068145014</v>
+        <v>32.904</v>
       </c>
       <c r="J6" t="n">
-        <v>21.34533333333333</v>
-      </c>
-      <c r="K6" t="n">
-        <v>32.904</v>
-      </c>
-      <c r="L6" t="n">
         <v>2705.658888888889</v>
       </c>
     </row>
@@ -732,30 +692,24 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>25.73333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>25.73333333333333</v>
+        <v>48.4</v>
       </c>
       <c r="F7" t="n">
-        <v>23.73333333333333</v>
+        <v>48.03823958428722</v>
       </c>
       <c r="G7" t="n">
-        <v>48.4</v>
+        <v>46.53594933262112</v>
       </c>
       <c r="H7" t="n">
-        <v>48.03823958428722</v>
+        <v>16.236</v>
       </c>
       <c r="I7" t="n">
-        <v>46.53594933262112</v>
+        <v>33.11533333333333</v>
       </c>
       <c r="J7" t="n">
-        <v>16.236</v>
-      </c>
-      <c r="K7" t="n">
-        <v>33.11533333333333</v>
-      </c>
-      <c r="L7" t="n">
         <v>2019.234666666666</v>
       </c>
     </row>

--- a/[3] Test Input/RESULTS_MTT_MERGED_DATE_ASR_control.xlsx
+++ b/[3] Test Input/RESULTS_MTT_MERGED_DATE_ASR_control.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,11 +476,6 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>AUC</t>
         </is>
       </c>
@@ -517,10 +512,7 @@
         <v>10.1745</v>
       </c>
       <c r="I2" t="n">
-        <v>25.83216666666667</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1224.361833333333</v>
+        <v>804.0529999999999</v>
       </c>
     </row>
     <row r="3">
@@ -555,10 +547,7 @@
         <v>13.51216666666667</v>
       </c>
       <c r="I3" t="n">
-        <v>30.43650000000001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1585.152833333334</v>
+        <v>1007.773333333333</v>
       </c>
     </row>
     <row r="4">
@@ -593,10 +582,7 @@
         <v>28.75888888888889</v>
       </c>
       <c r="I4" t="n">
-        <v>30.04266666666666</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3519.673333333334</v>
+        <v>2419.576888888889</v>
       </c>
     </row>
     <row r="5">
@@ -631,10 +617,7 @@
         <v>30.94933333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>42.70133333333333</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4301.724666666667</v>
+        <v>2838.652666666666</v>
       </c>
     </row>
     <row r="6">
@@ -669,10 +652,7 @@
         <v>21.34533333333333</v>
       </c>
       <c r="I6" t="n">
-        <v>32.904</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2705.658888888889</v>
+        <v>1776.259777777778</v>
       </c>
     </row>
     <row r="7">
@@ -707,10 +687,7 @@
         <v>16.236</v>
       </c>
       <c r="I7" t="n">
-        <v>33.11533333333333</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2019.234666666666</v>
+        <v>1276.462</v>
       </c>
     </row>
   </sheetData>
